--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1806"/>
+  <dimension ref="A1:G1720"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,10 +44529,8 @@
           <t>-0.2</t>
         </is>
       </c>
-      <c r="G1692" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1692" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1693">
@@ -44566,10 +44564,8 @@
           <t>231.0K</t>
         </is>
       </c>
-      <c r="G1693" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1693" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1694">
@@ -44603,10 +44599,8 @@
           <t>1885.0K</t>
         </is>
       </c>
-      <c r="G1694" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1694" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1695">
@@ -44636,10 +44630,8 @@
           <t>232.5K</t>
         </is>
       </c>
-      <c r="G1695" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1695" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1696">
@@ -44669,10 +44661,8 @@
           <t>50.4</t>
         </is>
       </c>
-      <c r="G1696" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1696" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1697">
@@ -44706,10 +44696,8 @@
           <t>50.3</t>
         </is>
       </c>
-      <c r="G1697" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1697" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1698">
@@ -44743,10 +44731,8 @@
           <t>51</t>
         </is>
       </c>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1698" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1699">
@@ -44780,10 +44766,8 @@
           <t>4.05M</t>
         </is>
       </c>
-      <c r="G1699" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1699" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1700">
@@ -44813,10 +44797,8 @@
           <t>0.7%</t>
         </is>
       </c>
-      <c r="G1700" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1700" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1701">
@@ -44846,10 +44828,8 @@
         </is>
       </c>
       <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1701" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1702">
@@ -44879,10 +44859,8 @@
           <t>-3</t>
         </is>
       </c>
-      <c r="G1702" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1702" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1703">
@@ -44912,10 +44890,8 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="G1703" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1703" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1704">
@@ -44941,10 +44917,8 @@
       </c>
       <c r="E1704" t="inlineStr"/>
       <c r="F1704" t="inlineStr"/>
-      <c r="G1704" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1704" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1705">
@@ -44970,10 +44944,8 @@
       </c>
       <c r="E1705" t="inlineStr"/>
       <c r="F1705" t="inlineStr"/>
-      <c r="G1705" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1705" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1706">
@@ -44999,10 +44971,8 @@
       </c>
       <c r="E1706" t="inlineStr"/>
       <c r="F1706" t="inlineStr"/>
-      <c r="G1706" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1706" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1707">
@@ -45028,10 +44998,8 @@
       </c>
       <c r="E1707" t="inlineStr"/>
       <c r="F1707" t="inlineStr"/>
-      <c r="G1707" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1707" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1708">
@@ -45057,10 +45025,8 @@
       </c>
       <c r="E1708" t="inlineStr"/>
       <c r="F1708" t="inlineStr"/>
-      <c r="G1708" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1708" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1709">
@@ -45078,10 +45044,8 @@
       <c r="D1709" t="inlineStr"/>
       <c r="E1709" t="inlineStr"/>
       <c r="F1709" t="inlineStr"/>
-      <c r="G1709" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1709" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1710">
@@ -45107,24 +45071,42 @@
       </c>
       <c r="E1710" t="inlineStr"/>
       <c r="F1710" t="inlineStr"/>
-      <c r="G1710" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1710" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1711">
       <c r="A1711" t="inlineStr">
         <is>
-          <t>Friday May 23 2025</t>
-        </is>
-      </c>
-      <c r="B1711" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1711" t="inlineStr">
+        <is>
+          <t>Michigan Consumer Sentiment FinalMAY</t>
+        </is>
+      </c>
       <c r="C1711" t="inlineStr"/>
-      <c r="D1711" t="inlineStr"/>
-      <c r="E1711" t="inlineStr"/>
-      <c r="F1711" t="inlineStr"/>
-      <c r="G1711" t="inlineStr"/>
+      <c r="D1711" t="inlineStr">
+        <is>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1711" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="F1711" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
+      <c r="G1711" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1712">
       <c r="A1712" t="inlineStr">
@@ -45134,28 +45116,28 @@
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>New Home SalesAPR</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr"/>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>0.724M</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1712" t="inlineStr">
         <is>
-          <t>0.692M</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>0.69M</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45167,67 +45149,91 @@
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>New Home Sales MoMAPR</t>
+          <t>Michigan Consumer Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr"/>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>7.4%</t>
-        </is>
-      </c>
-      <c r="E1713" t="inlineStr"/>
+          <t>47.3</t>
+        </is>
+      </c>
+      <c r="E1713" t="inlineStr">
+        <is>
+          <t>46.5</t>
+        </is>
+      </c>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>-4.7%</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Michigan Current Conditions FinalMAY</t>
         </is>
       </c>
       <c r="C1714" t="inlineStr"/>
-      <c r="D1714" t="inlineStr"/>
-      <c r="E1714" t="inlineStr"/>
-      <c r="F1714" t="inlineStr"/>
+      <c r="D1714" t="inlineStr">
+        <is>
+          <t>59.8</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
+      <c r="F1714" t="inlineStr">
+        <is>
+          <t>57.6</t>
+        </is>
+      </c>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
+          <t>Michigan Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr"/>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="E1715" t="inlineStr"/>
-      <c r="F1715" t="inlineStr"/>
+          <t>6.5%</t>
+        </is>
+      </c>
+      <c r="E1715" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
+      <c r="F1715" t="inlineStr">
+        <is>
+          <t>7.3%</t>
+        </is>
+      </c>
       <c r="G1715" t="inlineStr">
         <is>
           <t>3</t>
@@ -45242,15 +45248,11 @@
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
+          <t>Baker Hughes Oil Rig CountMAY/30</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr"/>
-      <c r="D1716" t="inlineStr">
-        <is>
-          <t>576</t>
-        </is>
-      </c>
+      <c r="D1716" t="inlineStr"/>
       <c r="E1716" t="inlineStr"/>
       <c r="F1716" t="inlineStr"/>
       <c r="G1716" t="inlineStr">
@@ -45260,28 +45262,20 @@
       </c>
     </row>
     <row r="1717">
-      <c r="A1717" t="inlineStr"/>
+      <c r="A1717" t="inlineStr">
+        <is>
+          <t>12:00 PM</t>
+        </is>
+      </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>Building Permits FinalAPR</t>
+          <t>Baker Hughes Total Rigs CountMAY/30</t>
         </is>
       </c>
       <c r="C1717" t="inlineStr"/>
-      <c r="D1717" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1717" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="F1717" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
+      <c r="D1717" t="inlineStr"/>
+      <c r="E1717" t="inlineStr"/>
+      <c r="F1717" t="inlineStr"/>
       <c r="G1717" t="inlineStr">
         <is>
           <t>3</t>
@@ -45289,38 +45283,22 @@
       </c>
     </row>
     <row r="1718">
-      <c r="A1718" t="inlineStr"/>
-      <c r="B1718" t="inlineStr">
-        <is>
-          <t>Building Permits MoM FinalAPR</t>
-        </is>
-      </c>
+      <c r="A1718" t="inlineStr">
+        <is>
+          <t>Saturday May 31 2025</t>
+        </is>
+      </c>
+      <c r="B1718" t="inlineStr"/>
       <c r="C1718" t="inlineStr"/>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1718" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1718" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="G1718" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1718" t="inlineStr"/>
+      <c r="E1718" t="inlineStr"/>
+      <c r="F1718" t="inlineStr"/>
+      <c r="G1718" t="inlineStr"/>
     </row>
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>Sunday May 25 2025</t>
+          <t>Sunday June 01 2025</t>
         </is>
       </c>
       <c r="B1719" t="inlineStr"/>
@@ -45333,2229 +45311,15 @@
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>01:40 PM</t>
-        </is>
-      </c>
-      <c r="B1720" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Monday June 02 2025</t>
+        </is>
+      </c>
+      <c r="B1720" t="inlineStr"/>
       <c r="C1720" t="inlineStr"/>
       <c r="D1720" t="inlineStr"/>
       <c r="E1720" t="inlineStr"/>
       <c r="F1720" t="inlineStr"/>
-      <c r="G1720" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1721">
-      <c r="A1721" t="inlineStr">
-        <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr"/>
-      <c r="C1721" t="inlineStr"/>
-      <c r="D1721" t="inlineStr"/>
-      <c r="E1721" t="inlineStr"/>
-      <c r="F1721" t="inlineStr"/>
-      <c r="G1721" t="inlineStr"/>
-    </row>
-    <row r="1722">
-      <c r="A1722" t="inlineStr">
-        <is>
-          <t>Tuesday May 27 2025</t>
-        </is>
-      </c>
-      <c r="B1722" t="inlineStr"/>
-      <c r="C1722" t="inlineStr"/>
-      <c r="D1722" t="inlineStr"/>
-      <c r="E1722" t="inlineStr"/>
-      <c r="F1722" t="inlineStr"/>
-      <c r="G1722" t="inlineStr"/>
-    </row>
-    <row r="1723">
-      <c r="A1723" t="inlineStr">
-        <is>
-          <t>03:00 AM</t>
-        </is>
-      </c>
-      <c r="B1723" t="inlineStr">
-        <is>
-          <t>Fed Kashkari Speech</t>
-        </is>
-      </c>
-      <c r="C1723" t="inlineStr"/>
-      <c r="D1723" t="inlineStr"/>
-      <c r="E1723" t="inlineStr"/>
-      <c r="F1723" t="inlineStr"/>
-      <c r="G1723" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1724">
-      <c r="A1724" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1724" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1724" t="inlineStr"/>
-      <c r="D1724" t="inlineStr">
-        <is>
-          <t>7.5%</t>
-        </is>
-      </c>
-      <c r="E1724" t="inlineStr"/>
-      <c r="F1724" t="inlineStr">
-        <is>
-          <t>-6.8%</t>
-        </is>
-      </c>
-      <c r="G1724" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1725">
-      <c r="A1725" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1725" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders Ex Transp MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1725" t="inlineStr"/>
-      <c r="D1725" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1725" t="inlineStr"/>
-      <c r="F1725" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1725" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1726">
-      <c r="A1726" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1726" t="inlineStr">
-        <is>
-          <t>Durable Goods Orders ex Defense MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1726" t="inlineStr"/>
-      <c r="D1726" t="inlineStr">
-        <is>
-          <t>8.9%</t>
-        </is>
-      </c>
-      <c r="E1726" t="inlineStr"/>
-      <c r="F1726" t="inlineStr">
-        <is>
-          <t>-8.1%</t>
-        </is>
-      </c>
-      <c r="G1726" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1727">
-      <c r="A1727" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1727" t="inlineStr">
-        <is>
-          <t>Non Defense Goods Orders Ex AirAPR</t>
-        </is>
-      </c>
-      <c r="C1727" t="inlineStr"/>
-      <c r="D1727" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1727" t="inlineStr"/>
-      <c r="F1727" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1727" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1728">
-      <c r="A1728" t="inlineStr">
-        <is>
-          <t>07:55 AM</t>
-        </is>
-      </c>
-      <c r="B1728" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAY/24</t>
-        </is>
-      </c>
-      <c r="C1728" t="inlineStr"/>
-      <c r="D1728" t="inlineStr">
-        <is>
-          <t>5.4%</t>
-        </is>
-      </c>
-      <c r="E1728" t="inlineStr"/>
-      <c r="F1728" t="inlineStr"/>
-      <c r="G1728" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1729">
-      <c r="A1729" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1729" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1729" t="inlineStr"/>
-      <c r="D1729" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1729" t="inlineStr"/>
-      <c r="F1729" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="G1729" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1730">
-      <c r="A1730" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1730" t="inlineStr">
-        <is>
-          <t>House Price IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1730" t="inlineStr"/>
-      <c r="D1730" t="inlineStr">
-        <is>
-          <t>437.3</t>
-        </is>
-      </c>
-      <c r="E1730" t="inlineStr"/>
-      <c r="F1730" t="inlineStr">
-        <is>
-          <t>438.1</t>
-        </is>
-      </c>
-      <c r="G1730" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1731">
-      <c r="A1731" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1731" t="inlineStr">
-        <is>
-          <t>House Price Index MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1731" t="inlineStr"/>
-      <c r="D1731" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="E1731" t="inlineStr"/>
-      <c r="F1731" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1731" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1732">
-      <c r="A1732" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1732" t="inlineStr">
-        <is>
-          <t>House Price Index YoYMAR</t>
-        </is>
-      </c>
-      <c r="C1732" t="inlineStr"/>
-      <c r="D1732" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1732" t="inlineStr"/>
-      <c r="F1732" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="G1732" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1733">
-      <c r="A1733" t="inlineStr">
-        <is>
-          <t>08:00 AM</t>
-        </is>
-      </c>
-      <c r="B1733" t="inlineStr">
-        <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
-        </is>
-      </c>
-      <c r="C1733" t="inlineStr"/>
-      <c r="D1733" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1733" t="inlineStr"/>
-      <c r="F1733" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1733" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1734">
-      <c r="A1734" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1734" t="inlineStr">
-        <is>
-          <t>CB Consumer ConfidenceMAY</t>
-        </is>
-      </c>
-      <c r="C1734" t="inlineStr"/>
-      <c r="D1734" t="inlineStr">
-        <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E1734" t="inlineStr"/>
-      <c r="F1734" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="G1734" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1735">
-      <c r="A1735" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1735" t="inlineStr">
-        <is>
-          <t>Dallas Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1735" t="inlineStr"/>
-      <c r="D1735" t="inlineStr">
-        <is>
-          <t>-35.8</t>
-        </is>
-      </c>
-      <c r="E1735" t="inlineStr"/>
-      <c r="F1735" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
-      <c r="G1735" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1736">
-      <c r="A1736" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1736" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1736" t="inlineStr"/>
-      <c r="D1736" t="inlineStr">
-        <is>
-          <t>4.285%</t>
-        </is>
-      </c>
-      <c r="E1736" t="inlineStr"/>
-      <c r="F1736" t="inlineStr"/>
-      <c r="G1736" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1737">
-      <c r="A1737" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1737" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1737" t="inlineStr"/>
-      <c r="D1737" t="inlineStr">
-        <is>
-          <t>4.140%</t>
-        </is>
-      </c>
-      <c r="E1737" t="inlineStr"/>
-      <c r="F1737" t="inlineStr"/>
-      <c r="G1737" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1738">
-      <c r="A1738" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1738" t="inlineStr">
-        <is>
-          <t>2-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1738" t="inlineStr"/>
-      <c r="D1738" t="inlineStr">
-        <is>
-          <t>3.795%</t>
-        </is>
-      </c>
-      <c r="E1738" t="inlineStr"/>
-      <c r="F1738" t="inlineStr"/>
-      <c r="G1738" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1739">
-      <c r="A1739" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1739" t="inlineStr">
-        <is>
-          <t>Money SupplyAPR</t>
-        </is>
-      </c>
-      <c r="C1739" t="inlineStr"/>
-      <c r="D1739" t="inlineStr">
-        <is>
-          <t>$21.76T</t>
-        </is>
-      </c>
-      <c r="E1739" t="inlineStr"/>
-      <c r="F1739" t="inlineStr"/>
-      <c r="G1739" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1740">
-      <c r="A1740" t="inlineStr">
-        <is>
-          <t>Wednesday May 28 2025</t>
-        </is>
-      </c>
-      <c r="B1740" t="inlineStr"/>
-      <c r="C1740" t="inlineStr"/>
-      <c r="D1740" t="inlineStr"/>
-      <c r="E1740" t="inlineStr"/>
-      <c r="F1740" t="inlineStr"/>
-      <c r="G1740" t="inlineStr"/>
-    </row>
-    <row r="1741">
-      <c r="A1741" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1741" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAY/23</t>
-        </is>
-      </c>
-      <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr">
-        <is>
-          <t>6.92%</t>
-        </is>
-      </c>
-      <c r="E1741" t="inlineStr"/>
-      <c r="F1741" t="inlineStr"/>
-      <c r="G1741" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1742">
-      <c r="A1742" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1742" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAY/23</t>
-        </is>
-      </c>
-      <c r="C1742" t="inlineStr"/>
-      <c r="D1742" t="inlineStr">
-        <is>
-          <t>-5.1%</t>
-        </is>
-      </c>
-      <c r="E1742" t="inlineStr"/>
-      <c r="F1742" t="inlineStr"/>
-      <c r="G1742" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1743">
-      <c r="A1743" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1743" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C1743" t="inlineStr"/>
-      <c r="D1743" t="inlineStr">
-        <is>
-          <t>238.5</t>
-        </is>
-      </c>
-      <c r="E1743" t="inlineStr"/>
-      <c r="F1743" t="inlineStr"/>
-      <c r="G1743" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1744">
-      <c r="A1744" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1744" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C1744" t="inlineStr"/>
-      <c r="D1744" t="inlineStr">
-        <is>
-          <t>682.5</t>
-        </is>
-      </c>
-      <c r="E1744" t="inlineStr"/>
-      <c r="F1744" t="inlineStr"/>
-      <c r="G1744" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1745">
-      <c r="A1745" t="inlineStr">
-        <is>
-          <t>06:00 AM</t>
-        </is>
-      </c>
-      <c r="B1745" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAY/23</t>
-        </is>
-      </c>
-      <c r="C1745" t="inlineStr"/>
-      <c r="D1745" t="inlineStr">
-        <is>
-          <t>157.8</t>
-        </is>
-      </c>
-      <c r="E1745" t="inlineStr"/>
-      <c r="F1745" t="inlineStr"/>
-      <c r="G1745" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1746">
-      <c r="A1746" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1746" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1746" t="inlineStr"/>
-      <c r="D1746" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="E1746" t="inlineStr"/>
-      <c r="F1746" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="G1746" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1747">
-      <c r="A1747" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1747" t="inlineStr">
-        <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1747" t="inlineStr"/>
-      <c r="D1747" t="inlineStr">
-        <is>
-          <t>-17</t>
-        </is>
-      </c>
-      <c r="E1747" t="inlineStr"/>
-      <c r="F1747" t="inlineStr">
-        <is>
-          <t>-11</t>
-        </is>
-      </c>
-      <c r="G1747" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1748">
-      <c r="A1748" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1748" t="inlineStr">
-        <is>
-          <t>Richmond Fed Services Revenues IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1748" t="inlineStr"/>
-      <c r="D1748" t="inlineStr">
-        <is>
-          <t>-7</t>
-        </is>
-      </c>
-      <c r="E1748" t="inlineStr"/>
-      <c r="F1748" t="inlineStr">
-        <is>
-          <t>-5</t>
-        </is>
-      </c>
-      <c r="G1748" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1749">
-      <c r="A1749" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1749" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1749" t="inlineStr"/>
-      <c r="D1749" t="inlineStr">
-        <is>
-          <t>-19.4</t>
-        </is>
-      </c>
-      <c r="E1749" t="inlineStr"/>
-      <c r="F1749" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
-      <c r="G1749" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1750">
-      <c r="A1750" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1750" t="inlineStr">
-        <is>
-          <t>Dallas Fed Services Revenues IndexMAY</t>
-        </is>
-      </c>
-      <c r="C1750" t="inlineStr"/>
-      <c r="D1750" t="inlineStr">
-        <is>
-          <t>3.8</t>
-        </is>
-      </c>
-      <c r="E1750" t="inlineStr"/>
-      <c r="F1750" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G1750" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1751">
-      <c r="A1751" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1751" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1751" t="inlineStr"/>
-      <c r="D1751" t="inlineStr"/>
-      <c r="E1751" t="inlineStr"/>
-      <c r="F1751" t="inlineStr"/>
-      <c r="G1751" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1752">
-      <c r="A1752" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1752" t="inlineStr">
-        <is>
-          <t>5-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1752" t="inlineStr"/>
-      <c r="D1752" t="inlineStr">
-        <is>
-          <t>3.995%</t>
-        </is>
-      </c>
-      <c r="E1752" t="inlineStr"/>
-      <c r="F1752" t="inlineStr"/>
-      <c r="G1752" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1753">
-      <c r="A1753" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1753" t="inlineStr">
-        <is>
-          <t>2-Year FRN Auction</t>
-        </is>
-      </c>
-      <c r="C1753" t="inlineStr"/>
-      <c r="D1753" t="inlineStr">
-        <is>
-          <t>0.160%</t>
-        </is>
-      </c>
-      <c r="E1753" t="inlineStr"/>
-      <c r="F1753" t="inlineStr"/>
-      <c r="G1753" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1754">
-      <c r="A1754" t="inlineStr">
-        <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1754" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
-      <c r="C1754" t="inlineStr"/>
-      <c r="D1754" t="inlineStr"/>
-      <c r="E1754" t="inlineStr"/>
-      <c r="F1754" t="inlineStr"/>
-      <c r="G1754" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1755">
-      <c r="A1755" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1755" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1755" t="inlineStr"/>
-      <c r="D1755" t="inlineStr">
-        <is>
-          <t>2.499M</t>
-        </is>
-      </c>
-      <c r="E1755" t="inlineStr"/>
-      <c r="F1755" t="inlineStr"/>
-      <c r="G1755" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1756">
-      <c r="A1756" t="inlineStr">
-        <is>
-          <t>Thursday May 29 2025</t>
-        </is>
-      </c>
-      <c r="B1756" t="inlineStr"/>
-      <c r="C1756" t="inlineStr"/>
-      <c r="D1756" t="inlineStr"/>
-      <c r="E1756" t="inlineStr"/>
-      <c r="F1756" t="inlineStr"/>
-      <c r="G1756" t="inlineStr"/>
-    </row>
-    <row r="1757">
-      <c r="A1757" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1757" t="inlineStr">
-        <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1757" t="inlineStr"/>
-      <c r="D1757" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1757" t="inlineStr"/>
-      <c r="F1757" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="G1757" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1758">
-      <c r="A1758" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1758" t="inlineStr">
-        <is>
-          <t>Corporate Profits QoQ PrelQ1</t>
-        </is>
-      </c>
-      <c r="C1758" t="inlineStr"/>
-      <c r="D1758" t="inlineStr">
-        <is>
-          <t>5.9%</t>
-        </is>
-      </c>
-      <c r="E1758" t="inlineStr"/>
-      <c r="F1758" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="G1758" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1759">
-      <c r="A1759" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1759" t="inlineStr">
-        <is>
-          <t>GDP Price Index QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1759" t="inlineStr"/>
-      <c r="D1759" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1759" t="inlineStr"/>
-      <c r="F1759" t="inlineStr">
-        <is>
-          <t>3.7%</t>
-        </is>
-      </c>
-      <c r="G1759" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1760">
-      <c r="A1760" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1760" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAY/24</t>
-        </is>
-      </c>
-      <c r="C1760" t="inlineStr"/>
-      <c r="D1760" t="inlineStr">
-        <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1760" t="inlineStr"/>
-      <c r="F1760" t="inlineStr"/>
-      <c r="G1760" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1761">
-      <c r="A1761" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1761" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAY/17</t>
-        </is>
-      </c>
-      <c r="C1761" t="inlineStr"/>
-      <c r="D1761" t="inlineStr">
-        <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1761" t="inlineStr"/>
-      <c r="F1761" t="inlineStr"/>
-      <c r="G1761" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1762">
-      <c r="A1762" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1762" t="inlineStr">
-        <is>
-          <t>Core PCE Prices QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1762" t="inlineStr"/>
-      <c r="D1762" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1762" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="F1762" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1762" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1763">
-      <c r="A1763" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1763" t="inlineStr">
-        <is>
-          <t>GDP Sales QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1763" t="inlineStr"/>
-      <c r="D1763" t="inlineStr">
-        <is>
-          <t>3.3%</t>
-        </is>
-      </c>
-      <c r="E1763" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="F1763" t="inlineStr">
-        <is>
-          <t>-2.5%</t>
-        </is>
-      </c>
-      <c r="G1763" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1764">
-      <c r="A1764" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1764" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAY/24</t>
-        </is>
-      </c>
-      <c r="C1764" t="inlineStr"/>
-      <c r="D1764" t="inlineStr">
-        <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="E1764" t="inlineStr"/>
-      <c r="F1764" t="inlineStr"/>
-      <c r="G1764" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1765">
-      <c r="A1765" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1765" t="inlineStr">
-        <is>
-          <t>PCE Prices QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1765" t="inlineStr"/>
-      <c r="D1765" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1765" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="F1765" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1765" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1766">
-      <c r="A1766" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1766" t="inlineStr">
-        <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
-        </is>
-      </c>
-      <c r="C1766" t="inlineStr"/>
-      <c r="D1766" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1766" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="F1766" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
-      <c r="G1766" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1767">
-      <c r="A1767" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1767" t="inlineStr">
-        <is>
-          <t>Pending Home Sales MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1767" t="inlineStr"/>
-      <c r="D1767" t="inlineStr">
-        <is>
-          <t>6.1%</t>
-        </is>
-      </c>
-      <c r="E1767" t="inlineStr"/>
-      <c r="F1767" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
-      <c r="G1767" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1768">
-      <c r="A1768" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1768" t="inlineStr">
-        <is>
-          <t>Pending Home Sales YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1768" t="inlineStr"/>
-      <c r="D1768" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1768" t="inlineStr"/>
-      <c r="F1768" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="G1768" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1769">
-      <c r="A1769" t="inlineStr">
-        <is>
-          <t>09:30 AM</t>
-        </is>
-      </c>
-      <c r="B1769" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1769" t="inlineStr"/>
-      <c r="D1769" t="inlineStr"/>
-      <c r="E1769" t="inlineStr"/>
-      <c r="F1769" t="inlineStr"/>
-      <c r="G1769" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1770">
-      <c r="A1770" t="inlineStr">
-        <is>
-          <t>09:40 AM</t>
-        </is>
-      </c>
-      <c r="B1770" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
-      <c r="C1770" t="inlineStr"/>
-      <c r="D1770" t="inlineStr"/>
-      <c r="E1770" t="inlineStr"/>
-      <c r="F1770" t="inlineStr"/>
-      <c r="G1770" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1771">
-      <c r="A1771" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1771" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1771" t="inlineStr"/>
-      <c r="D1771" t="inlineStr"/>
-      <c r="E1771" t="inlineStr"/>
-      <c r="F1771" t="inlineStr"/>
-      <c r="G1771" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1772">
-      <c r="A1772" t="inlineStr">
-        <is>
-          <t>10:30 AM</t>
-        </is>
-      </c>
-      <c r="B1772" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1772" t="inlineStr"/>
-      <c r="D1772" t="inlineStr"/>
-      <c r="E1772" t="inlineStr"/>
-      <c r="F1772" t="inlineStr"/>
-      <c r="G1772" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1773">
-      <c r="A1773" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1773" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1773" t="inlineStr"/>
-      <c r="D1773" t="inlineStr">
-        <is>
-          <t>1.328M</t>
-        </is>
-      </c>
-      <c r="E1773" t="inlineStr"/>
-      <c r="F1773" t="inlineStr"/>
-      <c r="G1773" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1774">
-      <c r="A1774" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1774" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1774" t="inlineStr"/>
-      <c r="D1774" t="inlineStr">
-        <is>
-          <t>0.816M</t>
-        </is>
-      </c>
-      <c r="E1774" t="inlineStr"/>
-      <c r="F1774" t="inlineStr"/>
-      <c r="G1774" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1775">
-      <c r="A1775" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1775" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAY/29</t>
-        </is>
-      </c>
-      <c r="C1775" t="inlineStr"/>
-      <c r="D1775" t="inlineStr"/>
-      <c r="E1775" t="inlineStr"/>
-      <c r="F1775" t="inlineStr"/>
-      <c r="G1775" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1776">
-      <c r="A1776" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1776" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAY/29</t>
-        </is>
-      </c>
-      <c r="C1776" t="inlineStr"/>
-      <c r="D1776" t="inlineStr">
-        <is>
-          <t>6.86%</t>
-        </is>
-      </c>
-      <c r="E1776" t="inlineStr"/>
-      <c r="F1776" t="inlineStr"/>
-      <c r="G1776" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1777">
-      <c r="A1777" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1777" t="inlineStr">
-        <is>
-          <t>7-Year Note Auction</t>
-        </is>
-      </c>
-      <c r="C1777" t="inlineStr"/>
-      <c r="D1777" t="inlineStr"/>
-      <c r="E1777" t="inlineStr"/>
-      <c r="F1777" t="inlineStr"/>
-      <c r="G1777" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1778">
-      <c r="A1778" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1778" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1778" t="inlineStr"/>
-      <c r="D1778" t="inlineStr">
-        <is>
-          <t>0.11M</t>
-        </is>
-      </c>
-      <c r="E1778" t="inlineStr"/>
-      <c r="F1778" t="inlineStr"/>
-      <c r="G1778" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1779">
-      <c r="A1779" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1779" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1779" t="inlineStr"/>
-      <c r="D1779" t="inlineStr">
-        <is>
-          <t>-0.457M</t>
-        </is>
-      </c>
-      <c r="E1779" t="inlineStr"/>
-      <c r="F1779" t="inlineStr"/>
-      <c r="G1779" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1780">
-      <c r="A1780" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1780" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1780" t="inlineStr"/>
-      <c r="D1780" t="inlineStr">
-        <is>
-          <t>0.131M</t>
-        </is>
-      </c>
-      <c r="E1780" t="inlineStr"/>
-      <c r="F1780" t="inlineStr"/>
-      <c r="G1780" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1781">
-      <c r="A1781" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1781" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1781" t="inlineStr"/>
-      <c r="D1781" t="inlineStr">
-        <is>
-          <t>0.579M</t>
-        </is>
-      </c>
-      <c r="E1781" t="inlineStr"/>
-      <c r="F1781" t="inlineStr"/>
-      <c r="G1781" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1782">
-      <c r="A1782" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1782" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1782" t="inlineStr"/>
-      <c r="D1782" t="inlineStr">
-        <is>
-          <t>0.178M</t>
-        </is>
-      </c>
-      <c r="E1782" t="inlineStr"/>
-      <c r="F1782" t="inlineStr"/>
-      <c r="G1782" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1783">
-      <c r="A1783" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1783" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1783" t="inlineStr"/>
-      <c r="D1783" t="inlineStr">
-        <is>
-          <t>-0.348M</t>
-        </is>
-      </c>
-      <c r="E1783" t="inlineStr"/>
-      <c r="F1783" t="inlineStr"/>
-      <c r="G1783" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1784">
-      <c r="A1784" t="inlineStr">
-        <is>
-          <t>11:00 AM</t>
-        </is>
-      </c>
-      <c r="B1784" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
-        </is>
-      </c>
-      <c r="C1784" t="inlineStr"/>
-      <c r="D1784" t="inlineStr">
-        <is>
-          <t>0.089M</t>
-        </is>
-      </c>
-      <c r="E1784" t="inlineStr"/>
-      <c r="F1784" t="inlineStr"/>
-      <c r="G1784" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1785">
-      <c r="A1785" t="inlineStr">
-        <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1785" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/28</t>
-        </is>
-      </c>
-      <c r="C1785" t="inlineStr"/>
-      <c r="D1785" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
-      <c r="E1785" t="inlineStr"/>
-      <c r="F1785" t="inlineStr"/>
-      <c r="G1785" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1786">
-      <c r="A1786" t="inlineStr">
-        <is>
-          <t>Friday May 30 2025</t>
-        </is>
-      </c>
-      <c r="B1786" t="inlineStr"/>
-      <c r="C1786" t="inlineStr"/>
-      <c r="D1786" t="inlineStr"/>
-      <c r="E1786" t="inlineStr"/>
-      <c r="F1786" t="inlineStr"/>
-      <c r="G1786" t="inlineStr"/>
-    </row>
-    <row r="1787">
-      <c r="A1787" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1787" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1787" t="inlineStr"/>
-      <c r="D1787" t="inlineStr">
-        <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="E1787" t="inlineStr"/>
-      <c r="F1787" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1787" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1788">
-      <c r="A1788" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1788" t="inlineStr">
-        <is>
-          <t>Personal Income MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1788" t="inlineStr"/>
-      <c r="D1788" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1788" t="inlineStr"/>
-      <c r="F1788" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1788" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1789">
-      <c r="A1789" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1789" t="inlineStr">
-        <is>
-          <t>Personal Spending MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1789" t="inlineStr"/>
-      <c r="D1789" t="inlineStr">
-        <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1789" t="inlineStr"/>
-      <c r="F1789" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1789" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1790">
-      <c r="A1790" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1790" t="inlineStr">
-        <is>
-          <t>Goods Trade Balance AdvAPR</t>
-        </is>
-      </c>
-      <c r="C1790" t="inlineStr"/>
-      <c r="D1790" t="inlineStr">
-        <is>
-          <t>$-161.99B</t>
-        </is>
-      </c>
-      <c r="E1790" t="inlineStr"/>
-      <c r="F1790" t="inlineStr">
-        <is>
-          <t>$-159.0B</t>
-        </is>
-      </c>
-      <c r="G1790" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1791">
-      <c r="A1791" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1791" t="inlineStr">
-        <is>
-          <t>PCE Price Index MoMAPR</t>
-        </is>
-      </c>
-      <c r="C1791" t="inlineStr"/>
-      <c r="D1791" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="E1791" t="inlineStr"/>
-      <c r="F1791" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1792">
-      <c r="A1792" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1792" t="inlineStr">
-        <is>
-          <t>PCE Price Index YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1792" t="inlineStr"/>
-      <c r="D1792" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="E1792" t="inlineStr"/>
-      <c r="F1792" t="inlineStr">
-        <is>
-          <t>2.2%</t>
-        </is>
-      </c>
-      <c r="G1792" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1793">
-      <c r="A1793" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1793" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
-        </is>
-      </c>
-      <c r="C1793" t="inlineStr"/>
-      <c r="D1793" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1793" t="inlineStr"/>
-      <c r="F1793" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1793" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1794">
-      <c r="A1794" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1794" t="inlineStr">
-        <is>
-          <t>Wholesale Inventories MoM AdvAPR</t>
-        </is>
-      </c>
-      <c r="C1794" t="inlineStr"/>
-      <c r="D1794" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="E1794" t="inlineStr"/>
-      <c r="F1794" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="G1794" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1795">
-      <c r="A1795" t="inlineStr">
-        <is>
-          <t>07:30 AM</t>
-        </is>
-      </c>
-      <c r="B1795" t="inlineStr">
-        <is>
-          <t>Core PCE Price Index YoYAPR</t>
-        </is>
-      </c>
-      <c r="C1795" t="inlineStr"/>
-      <c r="D1795" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1795" t="inlineStr"/>
-      <c r="F1795" t="inlineStr">
-        <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="G1795" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1796">
-      <c r="A1796" t="inlineStr">
-        <is>
-          <t>08:45 AM</t>
-        </is>
-      </c>
-      <c r="B1796" t="inlineStr">
-        <is>
-          <t>Chicago PMIMAY</t>
-        </is>
-      </c>
-      <c r="C1796" t="inlineStr"/>
-      <c r="D1796" t="inlineStr">
-        <is>
-          <t>44.6</t>
-        </is>
-      </c>
-      <c r="E1796" t="inlineStr"/>
-      <c r="F1796" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="G1796" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1797">
-      <c r="A1797" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1797" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1797" t="inlineStr"/>
-      <c r="D1797" t="inlineStr">
-        <is>
-          <t>52.2</t>
-        </is>
-      </c>
-      <c r="E1797" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="F1797" t="inlineStr">
-        <is>
-          <t>50.8</t>
-        </is>
-      </c>
-      <c r="G1797" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1798">
-      <c r="A1798" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1798" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1798" t="inlineStr"/>
-      <c r="D1798" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1798" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="F1798" t="inlineStr">
-        <is>
-          <t>4.6%</t>
-        </is>
-      </c>
-      <c r="G1798" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1799">
-      <c r="A1799" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1799" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1799" t="inlineStr"/>
-      <c r="D1799" t="inlineStr">
-        <is>
-          <t>47.3</t>
-        </is>
-      </c>
-      <c r="E1799" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="F1799" t="inlineStr">
-        <is>
-          <t>46.5</t>
-        </is>
-      </c>
-      <c r="G1799" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1800">
-      <c r="A1800" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1800" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1800" t="inlineStr"/>
-      <c r="D1800" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1800" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="F1800" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="G1800" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1801">
-      <c r="A1801" t="inlineStr">
-        <is>
-          <t>09:00 AM</t>
-        </is>
-      </c>
-      <c r="B1801" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations FinalMAY</t>
-        </is>
-      </c>
-      <c r="C1801" t="inlineStr"/>
-      <c r="D1801" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1801" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F1801" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="G1801" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1802">
-      <c r="A1802" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1802" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAY/30</t>
-        </is>
-      </c>
-      <c r="C1802" t="inlineStr"/>
-      <c r="D1802" t="inlineStr"/>
-      <c r="E1802" t="inlineStr"/>
-      <c r="F1802" t="inlineStr"/>
-      <c r="G1802" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1803">
-      <c r="A1803" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1803" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/30</t>
-        </is>
-      </c>
-      <c r="C1803" t="inlineStr"/>
-      <c r="D1803" t="inlineStr"/>
-      <c r="E1803" t="inlineStr"/>
-      <c r="F1803" t="inlineStr"/>
-      <c r="G1803" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1804">
-      <c r="A1804" t="inlineStr">
-        <is>
-          <t>Saturday May 31 2025</t>
-        </is>
-      </c>
-      <c r="B1804" t="inlineStr"/>
-      <c r="C1804" t="inlineStr"/>
-      <c r="D1804" t="inlineStr"/>
-      <c r="E1804" t="inlineStr"/>
-      <c r="F1804" t="inlineStr"/>
-      <c r="G1804" t="inlineStr"/>
-    </row>
-    <row r="1805">
-      <c r="A1805" t="inlineStr">
-        <is>
-          <t>Sunday June 01 2025</t>
-        </is>
-      </c>
-      <c r="B1805" t="inlineStr"/>
-      <c r="C1805" t="inlineStr"/>
-      <c r="D1805" t="inlineStr"/>
-      <c r="E1805" t="inlineStr"/>
-      <c r="F1805" t="inlineStr"/>
-      <c r="G1805" t="inlineStr"/>
-    </row>
-    <row r="1806">
-      <c r="A1806" t="inlineStr">
-        <is>
-          <t>Monday June 02 2025</t>
-        </is>
-      </c>
-      <c r="B1806" t="inlineStr"/>
-      <c r="C1806" t="inlineStr"/>
-      <c r="D1806" t="inlineStr"/>
-      <c r="E1806" t="inlineStr"/>
-      <c r="F1806" t="inlineStr"/>
-      <c r="G1806" t="inlineStr"/>
+      <c r="G1720" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
+++ b/Input_data/EST_US_trad_eco_cal_2024-12-28_to_2025-06-02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1794"/>
+  <dimension ref="A1:G1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44505,43 +44505,47 @@
     <row r="1692">
       <c r="A1692" t="inlineStr">
         <is>
-          <t>Friday May 23 2025</t>
-        </is>
-      </c>
-      <c r="B1692" t="inlineStr"/>
+          <t>09:00 AM</t>
+        </is>
+      </c>
+      <c r="B1692" t="inlineStr">
+        <is>
+          <t>New Home Sales MoMAPR</t>
+        </is>
+      </c>
       <c r="C1692" t="inlineStr"/>
-      <c r="D1692" t="inlineStr"/>
+      <c r="D1692" t="inlineStr">
+        <is>
+          <t>7.4%</t>
+        </is>
+      </c>
       <c r="E1692" t="inlineStr"/>
-      <c r="F1692" t="inlineStr"/>
-      <c r="G1692" t="inlineStr"/>
+      <c r="F1692" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="G1692" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1693">
       <c r="A1693" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1693" t="inlineStr">
         <is>
-          <t>New Home SalesAPR</t>
+          <t>Fed Cook Speech</t>
         </is>
       </c>
       <c r="C1693" t="inlineStr"/>
-      <c r="D1693" t="inlineStr">
-        <is>
-          <t>0.724M</t>
-        </is>
-      </c>
-      <c r="E1693" t="inlineStr">
-        <is>
-          <t>0.692M</t>
-        </is>
-      </c>
-      <c r="F1693" t="inlineStr">
-        <is>
-          <t>0.69M</t>
-        </is>
-      </c>
+      <c r="D1693" t="inlineStr"/>
+      <c r="E1693" t="inlineStr"/>
+      <c r="F1693" t="inlineStr"/>
       <c r="G1693" t="inlineStr">
         <is>
           <t>2</t>
@@ -44551,72 +44555,76 @@
     <row r="1694">
       <c r="A1694" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>New Home Sales MoMAPR</t>
+          <t>Baker Hughes Oil Rig CountMAY/23</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr"/>
       <c r="D1694" t="inlineStr">
         <is>
-          <t>7.4%</t>
+          <t>473</t>
         </is>
       </c>
       <c r="E1694" t="inlineStr"/>
-      <c r="F1694" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="F1694" t="inlineStr"/>
       <c r="G1694" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1695">
       <c r="A1695" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>Fed Cook Speech</t>
+          <t>Baker Hughes Total Rigs CountMAY/23</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr"/>
-      <c r="D1695" t="inlineStr"/>
+      <c r="D1695" t="inlineStr">
+        <is>
+          <t>576</t>
+        </is>
+      </c>
       <c r="E1695" t="inlineStr"/>
       <c r="F1695" t="inlineStr"/>
       <c r="G1695" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1696">
-      <c r="A1696" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1696" t="inlineStr"/>
       <c r="B1696" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/23</t>
+          <t>Building Permits FinalAPR</t>
         </is>
       </c>
       <c r="C1696" t="inlineStr"/>
       <c r="D1696" t="inlineStr">
         <is>
-          <t>473</t>
-        </is>
-      </c>
-      <c r="E1696" t="inlineStr"/>
-      <c r="F1696" t="inlineStr"/>
+          <t>1.467M</t>
+        </is>
+      </c>
+      <c r="E1696" t="inlineStr">
+        <is>
+          <t>1.412M</t>
+        </is>
+      </c>
+      <c r="F1696" t="inlineStr">
+        <is>
+          <t>1.412M</t>
+        </is>
+      </c>
       <c r="G1696" t="inlineStr">
         <is>
           <t>3</t>
@@ -44624,24 +44632,28 @@
       </c>
     </row>
     <row r="1697">
-      <c r="A1697" t="inlineStr">
-        <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
+      <c r="A1697" t="inlineStr"/>
       <c r="B1697" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAY/23</t>
+          <t>Building Permits MoM FinalAPR</t>
         </is>
       </c>
       <c r="C1697" t="inlineStr"/>
       <c r="D1697" t="inlineStr">
         <is>
-          <t>576</t>
-        </is>
-      </c>
-      <c r="E1697" t="inlineStr"/>
-      <c r="F1697" t="inlineStr"/>
+          <t>0.5%</t>
+        </is>
+      </c>
+      <c r="E1697" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
+      <c r="F1697" t="inlineStr">
+        <is>
+          <t>-4.7%</t>
+        </is>
+      </c>
       <c r="G1697" t="inlineStr">
         <is>
           <t>3</t>
@@ -44649,67 +44661,43 @@
       </c>
     </row>
     <row r="1698">
-      <c r="A1698" t="inlineStr"/>
-      <c r="B1698" t="inlineStr">
-        <is>
-          <t>Building Permits FinalAPR</t>
-        </is>
-      </c>
+      <c r="A1698" t="inlineStr">
+        <is>
+          <t>Sunday May 25 2025</t>
+        </is>
+      </c>
+      <c r="B1698" t="inlineStr"/>
       <c r="C1698" t="inlineStr"/>
-      <c r="D1698" t="inlineStr">
-        <is>
-          <t>1.467M</t>
-        </is>
-      </c>
-      <c r="E1698" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="F1698" t="inlineStr">
-        <is>
-          <t>1.412M</t>
-        </is>
-      </c>
-      <c r="G1698" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1698" t="inlineStr"/>
+      <c r="E1698" t="inlineStr"/>
+      <c r="F1698" t="inlineStr"/>
+      <c r="G1698" t="inlineStr"/>
     </row>
     <row r="1699">
-      <c r="A1699" t="inlineStr"/>
+      <c r="A1699" t="inlineStr">
+        <is>
+          <t>01:40 PM</t>
+        </is>
+      </c>
       <c r="B1699" t="inlineStr">
         <is>
-          <t>Building Permits MoM FinalAPR</t>
+          <t>Fed Chair Powell Speech</t>
         </is>
       </c>
       <c r="C1699" t="inlineStr"/>
-      <c r="D1699" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1699" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
-      <c r="F1699" t="inlineStr">
-        <is>
-          <t>-4.7%</t>
-        </is>
-      </c>
+      <c r="D1699" t="inlineStr"/>
+      <c r="E1699" t="inlineStr"/>
+      <c r="F1699" t="inlineStr"/>
       <c r="G1699" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1700">
       <c r="A1700" t="inlineStr">
         <is>
-          <t>Sunday May 25 2025</t>
+          <t>Monday May 26 2025</t>
         </is>
       </c>
       <c r="B1700" t="inlineStr"/>
@@ -44722,65 +44710,89 @@
     <row r="1701">
       <c r="A1701" t="inlineStr">
         <is>
-          <t>01:40 PM</t>
-        </is>
-      </c>
-      <c r="B1701" t="inlineStr">
-        <is>
-          <t>Fed Chair Powell Speech</t>
-        </is>
-      </c>
+          <t>Tuesday May 27 2025</t>
+        </is>
+      </c>
+      <c r="B1701" t="inlineStr"/>
       <c r="C1701" t="inlineStr"/>
       <c r="D1701" t="inlineStr"/>
       <c r="E1701" t="inlineStr"/>
       <c r="F1701" t="inlineStr"/>
-      <c r="G1701" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1701" t="inlineStr"/>
     </row>
     <row r="1702">
       <c r="A1702" t="inlineStr">
         <is>
-          <t>Monday May 26 2025</t>
-        </is>
-      </c>
-      <c r="B1702" t="inlineStr"/>
+          <t>03:00 AM</t>
+        </is>
+      </c>
+      <c r="B1702" t="inlineStr">
+        <is>
+          <t>Fed Kashkari Speech</t>
+        </is>
+      </c>
       <c r="C1702" t="inlineStr"/>
       <c r="D1702" t="inlineStr"/>
       <c r="E1702" t="inlineStr"/>
       <c r="F1702" t="inlineStr"/>
-      <c r="G1702" t="inlineStr"/>
+      <c r="G1702" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1703">
       <c r="A1703" t="inlineStr">
         <is>
-          <t>Tuesday May 27 2025</t>
-        </is>
-      </c>
-      <c r="B1703" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1703" t="inlineStr">
+        <is>
+          <t>Durable Goods Orders MoMAPR</t>
+        </is>
+      </c>
       <c r="C1703" t="inlineStr"/>
-      <c r="D1703" t="inlineStr"/>
+      <c r="D1703" t="inlineStr">
+        <is>
+          <t>7.5%</t>
+        </is>
+      </c>
       <c r="E1703" t="inlineStr"/>
-      <c r="F1703" t="inlineStr"/>
-      <c r="G1703" t="inlineStr"/>
+      <c r="F1703" t="inlineStr">
+        <is>
+          <t>-6.8%</t>
+        </is>
+      </c>
+      <c r="G1703" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1704">
       <c r="A1704" t="inlineStr">
         <is>
-          <t>03:00 AM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1704" t="inlineStr">
         <is>
-          <t>Fed Kashkari Speech</t>
+          <t>Durable Goods Orders Ex Transp MoMAPR</t>
         </is>
       </c>
       <c r="C1704" t="inlineStr"/>
-      <c r="D1704" t="inlineStr"/>
+      <c r="D1704" t="inlineStr">
+        <is>
+          <t>-0.4%</t>
+        </is>
+      </c>
       <c r="E1704" t="inlineStr"/>
-      <c r="F1704" t="inlineStr"/>
+      <c r="F1704" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1704" t="inlineStr">
         <is>
           <t>2</t>
@@ -44795,24 +44807,24 @@
       </c>
       <c r="B1705" t="inlineStr">
         <is>
-          <t>Durable Goods Orders MoMAPR</t>
+          <t>Durable Goods Orders ex Defense MoMAPR</t>
         </is>
       </c>
       <c r="C1705" t="inlineStr"/>
       <c r="D1705" t="inlineStr">
         <is>
-          <t>7.5%</t>
+          <t>8.9%</t>
         </is>
       </c>
       <c r="E1705" t="inlineStr"/>
       <c r="F1705" t="inlineStr">
         <is>
-          <t>-6.8%</t>
+          <t>-8.1%</t>
         </is>
       </c>
       <c r="G1705" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -44824,77 +44836,77 @@
       </c>
       <c r="B1706" t="inlineStr">
         <is>
-          <t>Durable Goods Orders Ex Transp MoMAPR</t>
+          <t>Non Defense Goods Orders Ex AirAPR</t>
         </is>
       </c>
       <c r="C1706" t="inlineStr"/>
       <c r="D1706" t="inlineStr">
         <is>
-          <t>-0.4%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="E1706" t="inlineStr"/>
       <c r="F1706" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1706" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1707">
       <c r="A1707" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1707" t="inlineStr">
         <is>
-          <t>Durable Goods Orders ex Defense MoMAPR</t>
+          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
         </is>
       </c>
       <c r="C1707" t="inlineStr"/>
       <c r="D1707" t="inlineStr">
         <is>
-          <t>8.9%</t>
+          <t>4.5%</t>
         </is>
       </c>
       <c r="E1707" t="inlineStr"/>
       <c r="F1707" t="inlineStr">
         <is>
-          <t>-8.1%</t>
+          <t>4.2%</t>
         </is>
       </c>
       <c r="G1707" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1708">
       <c r="A1708" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:00 AM</t>
         </is>
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>Non Defense Goods Orders Ex AirAPR</t>
+          <t>House Price IndexMAR</t>
         </is>
       </c>
       <c r="C1708" t="inlineStr"/>
       <c r="D1708" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>437.3</t>
         </is>
       </c>
       <c r="E1708" t="inlineStr"/>
       <c r="F1708" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>438.1</t>
         </is>
       </c>
       <c r="G1708" t="inlineStr">
@@ -44911,24 +44923,24 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price YoYMAR</t>
+          <t>House Price Index MoMMAR</t>
         </is>
       </c>
       <c r="C1709" t="inlineStr"/>
       <c r="D1709" t="inlineStr">
         <is>
-          <t>4.5%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="E1709" t="inlineStr"/>
       <c r="F1709" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>0.2%</t>
         </is>
       </c>
       <c r="G1709" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -44940,19 +44952,19 @@
       </c>
       <c r="B1710" t="inlineStr">
         <is>
-          <t>House Price IndexMAR</t>
+          <t>House Price Index YoYMAR</t>
         </is>
       </c>
       <c r="C1710" t="inlineStr"/>
       <c r="D1710" t="inlineStr">
         <is>
-          <t>437.3</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="E1710" t="inlineStr"/>
       <c r="F1710" t="inlineStr">
         <is>
-          <t>438.1</t>
+          <t>3.9%</t>
         </is>
       </c>
       <c r="G1710" t="inlineStr">
@@ -44969,19 +44981,19 @@
       </c>
       <c r="B1711" t="inlineStr">
         <is>
-          <t>House Price Index MoMMAR</t>
+          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
         </is>
       </c>
       <c r="C1711" t="inlineStr"/>
       <c r="D1711" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>0.7%</t>
         </is>
       </c>
       <c r="E1711" t="inlineStr"/>
       <c r="F1711" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.5%</t>
         </is>
       </c>
       <c r="G1711" t="inlineStr">
@@ -44993,138 +45005,130 @@
     <row r="1712">
       <c r="A1712" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1712" t="inlineStr">
         <is>
-          <t>House Price Index YoYMAR</t>
+          <t>CB Consumer ConfidenceMAY</t>
         </is>
       </c>
       <c r="C1712" t="inlineStr"/>
       <c r="D1712" t="inlineStr">
         <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1712" t="inlineStr"/>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="E1712" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
       <c r="F1712" t="inlineStr">
         <is>
-          <t>3.9%</t>
+          <t>84</t>
         </is>
       </c>
       <c r="G1712" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1713">
       <c r="A1713" t="inlineStr">
         <is>
-          <t>08:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1713" t="inlineStr">
         <is>
-          <t>S&amp;P/Case-Shiller Home Price MoMMAR</t>
+          <t>Dallas Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1713" t="inlineStr"/>
       <c r="D1713" t="inlineStr">
         <is>
-          <t>0.7%</t>
+          <t>-35.8</t>
         </is>
       </c>
       <c r="E1713" t="inlineStr"/>
       <c r="F1713" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="G1713" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1714">
       <c r="A1714" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1714" t="inlineStr">
         <is>
-          <t>CB Consumer ConfidenceMAY</t>
+          <t>3-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1714" t="inlineStr"/>
       <c r="D1714" t="inlineStr">
         <is>
-          <t>86.0</t>
-        </is>
-      </c>
-      <c r="E1714" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="F1714" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
+          <t>4.285%</t>
+        </is>
+      </c>
+      <c r="E1714" t="inlineStr"/>
+      <c r="F1714" t="inlineStr"/>
       <c r="G1714" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1715">
       <c r="A1715" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>Dallas Fed Manufacturing IndexMAY</t>
+          <t>6-Month Bill Auction</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr"/>
       <c r="D1715" t="inlineStr">
         <is>
-          <t>-35.8</t>
+          <t>4.140%</t>
         </is>
       </c>
       <c r="E1715" t="inlineStr"/>
-      <c r="F1715" t="inlineStr">
-        <is>
-          <t>-25</t>
-        </is>
-      </c>
+      <c r="F1715" t="inlineStr"/>
       <c r="G1715" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1716">
       <c r="A1716" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>2-Year Note Auction</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr"/>
       <c r="D1716" t="inlineStr">
         <is>
-          <t>4.285%</t>
+          <t>3.795%</t>
         </is>
       </c>
       <c r="E1716" t="inlineStr"/>
@@ -45138,18 +45142,18 @@
     <row r="1717">
       <c r="A1717" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1717" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Money SupplyAPR</t>
         </is>
       </c>
       <c r="C1717" t="inlineStr"/>
       <c r="D1717" t="inlineStr">
         <is>
-          <t>4.140%</t>
+          <t>$21.76T</t>
         </is>
       </c>
       <c r="E1717" t="inlineStr"/>
@@ -45163,66 +45167,54 @@
     <row r="1718">
       <c r="A1718" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1718" t="inlineStr">
         <is>
-          <t>2-Year Note Auction</t>
+          <t>Fed Williams Speech</t>
         </is>
       </c>
       <c r="C1718" t="inlineStr"/>
-      <c r="D1718" t="inlineStr">
-        <is>
-          <t>3.795%</t>
-        </is>
-      </c>
+      <c r="D1718" t="inlineStr"/>
       <c r="E1718" t="inlineStr"/>
       <c r="F1718" t="inlineStr"/>
       <c r="G1718" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1719">
       <c r="A1719" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1719" t="inlineStr">
-        <is>
-          <t>Money SupplyAPR</t>
-        </is>
-      </c>
+          <t>Wednesday May 28 2025</t>
+        </is>
+      </c>
+      <c r="B1719" t="inlineStr"/>
       <c r="C1719" t="inlineStr"/>
-      <c r="D1719" t="inlineStr">
-        <is>
-          <t>$21.76T</t>
-        </is>
-      </c>
+      <c r="D1719" t="inlineStr"/>
       <c r="E1719" t="inlineStr"/>
       <c r="F1719" t="inlineStr"/>
-      <c r="G1719" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1719" t="inlineStr"/>
     </row>
     <row r="1720">
       <c r="A1720" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>06:00 AM</t>
         </is>
       </c>
       <c r="B1720" t="inlineStr">
         <is>
-          <t>Fed Williams Speech</t>
+          <t>MBA 30-Year Mortgage RateMAY/23</t>
         </is>
       </c>
       <c r="C1720" t="inlineStr"/>
-      <c r="D1720" t="inlineStr"/>
+      <c r="D1720" t="inlineStr">
+        <is>
+          <t>6.92%</t>
+        </is>
+      </c>
       <c r="E1720" t="inlineStr"/>
       <c r="F1720" t="inlineStr"/>
       <c r="G1720" t="inlineStr">
@@ -45234,15 +45226,27 @@
     <row r="1721">
       <c r="A1721" t="inlineStr">
         <is>
-          <t>Wednesday May 28 2025</t>
-        </is>
-      </c>
-      <c r="B1721" t="inlineStr"/>
+          <t>06:00 AM</t>
+        </is>
+      </c>
+      <c r="B1721" t="inlineStr">
+        <is>
+          <t>MBA Mortgage ApplicationsMAY/23</t>
+        </is>
+      </c>
       <c r="C1721" t="inlineStr"/>
-      <c r="D1721" t="inlineStr"/>
+      <c r="D1721" t="inlineStr">
+        <is>
+          <t>-5.1%</t>
+        </is>
+      </c>
       <c r="E1721" t="inlineStr"/>
       <c r="F1721" t="inlineStr"/>
-      <c r="G1721" t="inlineStr"/>
+      <c r="G1721" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1722">
       <c r="A1722" t="inlineStr">
@@ -45252,20 +45256,20 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAY/23</t>
+          <t>MBA Mortgage Market IndexMAY/23</t>
         </is>
       </c>
       <c r="C1722" t="inlineStr"/>
       <c r="D1722" t="inlineStr">
         <is>
-          <t>6.92%</t>
+          <t>238.5</t>
         </is>
       </c>
       <c r="E1722" t="inlineStr"/>
       <c r="F1722" t="inlineStr"/>
       <c r="G1722" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45277,13 +45281,13 @@
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>MBA Mortgage ApplicationsMAY/23</t>
+          <t>MBA Mortgage Refinance IndexMAY/23</t>
         </is>
       </c>
       <c r="C1723" t="inlineStr"/>
       <c r="D1723" t="inlineStr">
         <is>
-          <t>-5.1%</t>
+          <t>682.5</t>
         </is>
       </c>
       <c r="E1723" t="inlineStr"/>
@@ -45302,13 +45306,13 @@
       </c>
       <c r="B1724" t="inlineStr">
         <is>
-          <t>MBA Mortgage Market IndexMAY/23</t>
+          <t>MBA Purchase IndexMAY/23</t>
         </is>
       </c>
       <c r="C1724" t="inlineStr"/>
       <c r="D1724" t="inlineStr">
         <is>
-          <t>238.5</t>
+          <t>157.8</t>
         </is>
       </c>
       <c r="E1724" t="inlineStr"/>
@@ -45322,18 +45326,18 @@
     <row r="1725">
       <c r="A1725" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>07:55 AM</t>
         </is>
       </c>
       <c r="B1725" t="inlineStr">
         <is>
-          <t>MBA Mortgage Refinance IndexMAY/23</t>
+          <t>Redbook YoYMAY/24</t>
         </is>
       </c>
       <c r="C1725" t="inlineStr"/>
       <c r="D1725" t="inlineStr">
         <is>
-          <t>682.5</t>
+          <t>5.4%</t>
         </is>
       </c>
       <c r="E1725" t="inlineStr"/>
@@ -45347,22 +45351,26 @@
     <row r="1726">
       <c r="A1726" t="inlineStr">
         <is>
-          <t>06:00 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1726" t="inlineStr">
         <is>
-          <t>MBA Purchase IndexMAY/23</t>
+          <t>Richmond Fed Manufacturing IndexMAY</t>
         </is>
       </c>
       <c r="C1726" t="inlineStr"/>
       <c r="D1726" t="inlineStr">
         <is>
-          <t>157.8</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="E1726" t="inlineStr"/>
-      <c r="F1726" t="inlineStr"/>
+      <c r="F1726" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="G1726" t="inlineStr">
         <is>
           <t>3</t>
@@ -45372,22 +45380,26 @@
     <row r="1727">
       <c r="A1727" t="inlineStr">
         <is>
-          <t>07:55 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1727" t="inlineStr">
         <is>
-          <t>Redbook YoYMAY/24</t>
+          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
         </is>
       </c>
       <c r="C1727" t="inlineStr"/>
       <c r="D1727" t="inlineStr">
         <is>
-          <t>5.4%</t>
+          <t>-17</t>
         </is>
       </c>
       <c r="E1727" t="inlineStr"/>
-      <c r="F1727" t="inlineStr"/>
+      <c r="F1727" t="inlineStr">
+        <is>
+          <t>-11</t>
+        </is>
+      </c>
       <c r="G1727" t="inlineStr">
         <is>
           <t>3</t>
@@ -45402,19 +45414,19 @@
       </c>
       <c r="B1728" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing IndexMAY</t>
+          <t>Richmond Fed Services Revenues IndexMAY</t>
         </is>
       </c>
       <c r="C1728" t="inlineStr"/>
       <c r="D1728" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>-7</t>
         </is>
       </c>
       <c r="E1728" t="inlineStr"/>
       <c r="F1728" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="G1728" t="inlineStr">
@@ -45426,24 +45438,24 @@
     <row r="1729">
       <c r="A1729" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>Richmond Fed Manufacturing Shipments IndexMAY</t>
+          <t>Dallas Fed Services IndexMAY</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr"/>
       <c r="D1729" t="inlineStr">
         <is>
-          <t>-17</t>
+          <t>-19.4</t>
         </is>
       </c>
       <c r="E1729" t="inlineStr"/>
       <c r="F1729" t="inlineStr">
         <is>
-          <t>-11</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="G1729" t="inlineStr">
@@ -45455,24 +45467,24 @@
     <row r="1730">
       <c r="A1730" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>Richmond Fed Services Revenues IndexMAY</t>
+          <t>Dallas Fed Services Revenues IndexMAY</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr"/>
       <c r="D1730" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>3.8</t>
         </is>
       </c>
       <c r="E1730" t="inlineStr"/>
       <c r="F1730" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G1730" t="inlineStr">
@@ -45484,26 +45496,22 @@
     <row r="1731">
       <c r="A1731" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1731" t="inlineStr">
         <is>
-          <t>Dallas Fed Services IndexMAY</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1731" t="inlineStr"/>
       <c r="D1731" t="inlineStr">
         <is>
-          <t>-19.4</t>
+          <t>4.230%</t>
         </is>
       </c>
       <c r="E1731" t="inlineStr"/>
-      <c r="F1731" t="inlineStr">
-        <is>
-          <t>-10</t>
-        </is>
-      </c>
+      <c r="F1731" t="inlineStr"/>
       <c r="G1731" t="inlineStr">
         <is>
           <t>3</t>
@@ -45513,26 +45521,22 @@
     <row r="1732">
       <c r="A1732" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1732" t="inlineStr">
         <is>
-          <t>Dallas Fed Services Revenues IndexMAY</t>
+          <t>5-Year Note Auction</t>
         </is>
       </c>
       <c r="C1732" t="inlineStr"/>
       <c r="D1732" t="inlineStr">
         <is>
-          <t>3.8</t>
+          <t>3.995%</t>
         </is>
       </c>
       <c r="E1732" t="inlineStr"/>
-      <c r="F1732" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
+      <c r="F1732" t="inlineStr"/>
       <c r="G1732" t="inlineStr">
         <is>
           <t>3</t>
@@ -45542,18 +45546,18 @@
     <row r="1733">
       <c r="A1733" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1733" t="inlineStr">
         <is>
-          <t>17-Week Bill Auction</t>
+          <t>2-Year FRN Auction</t>
         </is>
       </c>
       <c r="C1733" t="inlineStr"/>
       <c r="D1733" t="inlineStr">
         <is>
-          <t>4.230%</t>
+          <t>0.160%</t>
         </is>
       </c>
       <c r="E1733" t="inlineStr"/>
@@ -45567,111 +45571,123 @@
     <row r="1734">
       <c r="A1734" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1734" t="inlineStr">
         <is>
-          <t>5-Year Note Auction</t>
+          <t>FOMC Minutes</t>
         </is>
       </c>
       <c r="C1734" t="inlineStr"/>
-      <c r="D1734" t="inlineStr">
-        <is>
-          <t>3.995%</t>
-        </is>
-      </c>
+      <c r="D1734" t="inlineStr"/>
       <c r="E1734" t="inlineStr"/>
       <c r="F1734" t="inlineStr"/>
       <c r="G1734" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1735">
       <c r="A1735" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>2-Year FRN Auction</t>
+          <t>API Crude Oil Stock ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr"/>
       <c r="D1735" t="inlineStr">
         <is>
-          <t>0.160%</t>
+          <t>2.499M</t>
         </is>
       </c>
       <c r="E1735" t="inlineStr"/>
       <c r="F1735" t="inlineStr"/>
       <c r="G1735" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1736">
       <c r="A1736" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
-        </is>
-      </c>
-      <c r="B1736" t="inlineStr">
-        <is>
-          <t>FOMC Minutes</t>
-        </is>
-      </c>
+          <t>Thursday May 29 2025</t>
+        </is>
+      </c>
+      <c r="B1736" t="inlineStr"/>
       <c r="C1736" t="inlineStr"/>
       <c r="D1736" t="inlineStr"/>
       <c r="E1736" t="inlineStr"/>
       <c r="F1736" t="inlineStr"/>
-      <c r="G1736" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="G1736" t="inlineStr"/>
     </row>
     <row r="1737">
       <c r="A1737" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAY/23</t>
+          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr"/>
       <c r="D1737" t="inlineStr">
         <is>
-          <t>2.499M</t>
-        </is>
-      </c>
-      <c r="E1737" t="inlineStr"/>
-      <c r="F1737" t="inlineStr"/>
+          <t>2.4%</t>
+        </is>
+      </c>
+      <c r="E1737" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
+      <c r="F1737" t="inlineStr">
+        <is>
+          <t>-0.3%</t>
+        </is>
+      </c>
       <c r="G1737" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1738">
       <c r="A1738" t="inlineStr">
         <is>
-          <t>Thursday May 29 2025</t>
-        </is>
-      </c>
-      <c r="B1738" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1738" t="inlineStr">
+        <is>
+          <t>Corporate Profits QoQ PrelQ1</t>
+        </is>
+      </c>
       <c r="C1738" t="inlineStr"/>
-      <c r="D1738" t="inlineStr"/>
+      <c r="D1738" t="inlineStr">
+        <is>
+          <t>5.9%</t>
+        </is>
+      </c>
       <c r="E1738" t="inlineStr"/>
-      <c r="F1738" t="inlineStr"/>
-      <c r="G1738" t="inlineStr"/>
+      <c r="F1738" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="G1738" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1739">
       <c r="A1739" t="inlineStr">
@@ -45681,28 +45697,16 @@
       </c>
       <c r="B1739" t="inlineStr">
         <is>
-          <t>GDP Growth Rate QoQ 2nd EstQ1</t>
+          <t>Fed Barkin Speech</t>
         </is>
       </c>
       <c r="C1739" t="inlineStr"/>
-      <c r="D1739" t="inlineStr">
-        <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1739" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="F1739" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
+      <c r="D1739" t="inlineStr"/>
+      <c r="E1739" t="inlineStr"/>
+      <c r="F1739" t="inlineStr"/>
       <c r="G1739" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -45714,19 +45718,19 @@
       </c>
       <c r="B1740" t="inlineStr">
         <is>
-          <t>Corporate Profits QoQ PrelQ1</t>
+          <t>GDP Price Index QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1740" t="inlineStr"/>
       <c r="D1740" t="inlineStr">
         <is>
-          <t>5.9%</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E1740" t="inlineStr"/>
       <c r="F1740" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>3.7%</t>
         </is>
       </c>
       <c r="G1740" t="inlineStr">
@@ -45743,13 +45747,21 @@
       </c>
       <c r="B1741" t="inlineStr">
         <is>
-          <t>Fed Barkin Speech</t>
+          <t>Initial Jobless ClaimsMAY/24</t>
         </is>
       </c>
       <c r="C1741" t="inlineStr"/>
-      <c r="D1741" t="inlineStr"/>
+      <c r="D1741" t="inlineStr">
+        <is>
+          <t>227K</t>
+        </is>
+      </c>
       <c r="E1741" t="inlineStr"/>
-      <c r="F1741" t="inlineStr"/>
+      <c r="F1741" t="inlineStr">
+        <is>
+          <t>230K</t>
+        </is>
+      </c>
       <c r="G1741" t="inlineStr">
         <is>
           <t>2</t>
@@ -45764,24 +45776,24 @@
       </c>
       <c r="B1742" t="inlineStr">
         <is>
-          <t>GDP Price Index QoQ 2nd EstQ1</t>
+          <t>Continuing Jobless ClaimsMAY/17</t>
         </is>
       </c>
       <c r="C1742" t="inlineStr"/>
       <c r="D1742" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>1903K</t>
         </is>
       </c>
       <c r="E1742" t="inlineStr"/>
       <c r="F1742" t="inlineStr">
         <is>
-          <t>3.7%</t>
+          <t>1907K</t>
         </is>
       </c>
       <c r="G1742" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45793,24 +45805,28 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>Initial Jobless ClaimsMAY/24</t>
+          <t>Core PCE Prices QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr"/>
       <c r="D1743" t="inlineStr">
         <is>
-          <t>227K</t>
-        </is>
-      </c>
-      <c r="E1743" t="inlineStr"/>
+          <t>2.6%</t>
+        </is>
+      </c>
+      <c r="E1743" t="inlineStr">
+        <is>
+          <t>3.5%</t>
+        </is>
+      </c>
       <c r="F1743" t="inlineStr">
         <is>
-          <t>230K</t>
+          <t>3.5%</t>
         </is>
       </c>
       <c r="G1743" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -45822,19 +45838,23 @@
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>Continuing Jobless ClaimsMAY/17</t>
+          <t>GDP Sales QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr"/>
       <c r="D1744" t="inlineStr">
         <is>
-          <t>1903K</t>
-        </is>
-      </c>
-      <c r="E1744" t="inlineStr"/>
+          <t>3.3%</t>
+        </is>
+      </c>
+      <c r="E1744" t="inlineStr">
+        <is>
+          <t>-2.5%</t>
+        </is>
+      </c>
       <c r="F1744" t="inlineStr">
         <is>
-          <t>1907K</t>
+          <t>-2.5%</t>
         </is>
       </c>
       <c r="G1744" t="inlineStr">
@@ -45851,23 +45871,19 @@
       </c>
       <c r="B1745" t="inlineStr">
         <is>
-          <t>Core PCE Prices QoQ 2nd EstQ1</t>
+          <t>Jobless Claims 4-week AverageMAY/24</t>
         </is>
       </c>
       <c r="C1745" t="inlineStr"/>
       <c r="D1745" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1745" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+          <t>231.5K</t>
+        </is>
+      </c>
+      <c r="E1745" t="inlineStr"/>
       <c r="F1745" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>233K</t>
         </is>
       </c>
       <c r="G1745" t="inlineStr">
@@ -45884,23 +45900,23 @@
       </c>
       <c r="B1746" t="inlineStr">
         <is>
-          <t>GDP Sales QoQ 2nd EstQ1</t>
+          <t>PCE Prices QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1746" t="inlineStr"/>
       <c r="D1746" t="inlineStr">
         <is>
-          <t>3.3%</t>
+          <t>2.4%</t>
         </is>
       </c>
       <c r="E1746" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="F1746" t="inlineStr">
         <is>
-          <t>-2.5%</t>
+          <t>3.6%</t>
         </is>
       </c>
       <c r="G1746" t="inlineStr">
@@ -45917,19 +45933,23 @@
       </c>
       <c r="B1747" t="inlineStr">
         <is>
-          <t>Jobless Claims 4-week AverageMAY/24</t>
+          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
         </is>
       </c>
       <c r="C1747" t="inlineStr"/>
       <c r="D1747" t="inlineStr">
         <is>
-          <t>231.5K</t>
-        </is>
-      </c>
-      <c r="E1747" t="inlineStr"/>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="E1747" t="inlineStr">
+        <is>
+          <t>1.8%</t>
+        </is>
+      </c>
       <c r="F1747" t="inlineStr">
         <is>
-          <t>233K</t>
+          <t>1.8%</t>
         </is>
       </c>
       <c r="G1747" t="inlineStr">
@@ -45941,121 +45961,101 @@
     <row r="1748">
       <c r="A1748" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>PCE Prices QoQ 2nd EstQ1</t>
+          <t>Pending Home Sales MoMAPR</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr"/>
       <c r="D1748" t="inlineStr">
         <is>
-          <t>2.4%</t>
-        </is>
-      </c>
-      <c r="E1748" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+          <t>6.1%</t>
+        </is>
+      </c>
+      <c r="E1748" t="inlineStr"/>
       <c r="F1748" t="inlineStr">
         <is>
-          <t>3.6%</t>
+          <t>-1.5%</t>
         </is>
       </c>
       <c r="G1748" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1749">
       <c r="A1749" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1749" t="inlineStr">
         <is>
-          <t>Real Consumer Spending QoQ 2nd EstQ1</t>
+          <t>Pending Home Sales YoYAPR</t>
         </is>
       </c>
       <c r="C1749" t="inlineStr"/>
       <c r="D1749" t="inlineStr">
         <is>
-          <t>4%</t>
-        </is>
-      </c>
-      <c r="E1749" t="inlineStr">
-        <is>
-          <t>1.8%</t>
-        </is>
-      </c>
+          <t>-0.6%</t>
+        </is>
+      </c>
+      <c r="E1749" t="inlineStr"/>
       <c r="F1749" t="inlineStr">
         <is>
-          <t>1.8%</t>
+          <t>1.9%</t>
         </is>
       </c>
       <c r="G1749" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1750">
       <c r="A1750" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:30 AM</t>
         </is>
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>Pending Home Sales MoMAPR</t>
+          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr"/>
       <c r="D1750" t="inlineStr">
         <is>
-          <t>6.1%</t>
+          <t>120Bcf</t>
         </is>
       </c>
       <c r="E1750" t="inlineStr"/>
-      <c r="F1750" t="inlineStr">
-        <is>
-          <t>-1.5%</t>
-        </is>
-      </c>
+      <c r="F1750" t="inlineStr"/>
       <c r="G1750" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1751">
       <c r="A1751" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>09:40 AM</t>
         </is>
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>Pending Home Sales YoYAPR</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr"/>
-      <c r="D1751" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
+      <c r="D1751" t="inlineStr"/>
       <c r="E1751" t="inlineStr"/>
-      <c r="F1751" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
+      <c r="F1751" t="inlineStr"/>
       <c r="G1751" t="inlineStr">
         <is>
           <t>2</t>
@@ -46065,18 +46065,18 @@
     <row r="1752">
       <c r="A1752" t="inlineStr">
         <is>
-          <t>09:30 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1752" t="inlineStr">
         <is>
-          <t>EIA Natural Gas Stocks ChangeMAY/23</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1752" t="inlineStr"/>
       <c r="D1752" t="inlineStr">
         <is>
-          <t>120Bcf</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1752" t="inlineStr"/>
@@ -46090,71 +46090,75 @@
     <row r="1753">
       <c r="A1753" t="inlineStr">
         <is>
-          <t>09:40 AM</t>
+          <t>10:30 AM</t>
         </is>
       </c>
       <c r="B1753" t="inlineStr">
         <is>
-          <t>Fed Goolsbee Speech</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1753" t="inlineStr"/>
-      <c r="D1753" t="inlineStr"/>
+      <c r="D1753" t="inlineStr">
+        <is>
+          <t>4.235%</t>
+        </is>
+      </c>
       <c r="E1753" t="inlineStr"/>
       <c r="F1753" t="inlineStr"/>
       <c r="G1753" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1754">
       <c r="A1754" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1754" t="inlineStr">
         <is>
-          <t>4-Week Bill Auction</t>
+          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1754" t="inlineStr"/>
       <c r="D1754" t="inlineStr">
         <is>
-          <t>4.220%</t>
+          <t>1.328M</t>
         </is>
       </c>
       <c r="E1754" t="inlineStr"/>
       <c r="F1754" t="inlineStr"/>
       <c r="G1754" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1755">
       <c r="A1755" t="inlineStr">
         <is>
-          <t>10:30 AM</t>
+          <t>11:00 AM</t>
         </is>
       </c>
       <c r="B1755" t="inlineStr">
         <is>
-          <t>8-Week Bill Auction</t>
+          <t>EIA Gasoline Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1755" t="inlineStr"/>
       <c r="D1755" t="inlineStr">
         <is>
-          <t>4.235%</t>
+          <t>0.816M</t>
         </is>
       </c>
       <c r="E1755" t="inlineStr"/>
       <c r="F1755" t="inlineStr"/>
       <c r="G1755" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46166,20 +46170,20 @@
       </c>
       <c r="B1756" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Stocks ChangeMAY/23</t>
+          <t>15-Year Mortgage RateMAY/29</t>
         </is>
       </c>
       <c r="C1756" t="inlineStr"/>
       <c r="D1756" t="inlineStr">
         <is>
-          <t>1.328M</t>
+          <t>6.01%</t>
         </is>
       </c>
       <c r="E1756" t="inlineStr"/>
       <c r="F1756" t="inlineStr"/>
       <c r="G1756" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46191,20 +46195,20 @@
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>EIA Gasoline Stocks ChangeMAY/23</t>
+          <t>30-Year Mortgage RateMAY/29</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr"/>
       <c r="D1757" t="inlineStr">
         <is>
-          <t>0.816M</t>
+          <t>6.86%</t>
         </is>
       </c>
       <c r="E1757" t="inlineStr"/>
       <c r="F1757" t="inlineStr"/>
       <c r="G1757" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46216,13 +46220,13 @@
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>15-Year Mortgage RateMAY/29</t>
+          <t>7-Year Note Auction</t>
         </is>
       </c>
       <c r="C1758" t="inlineStr"/>
       <c r="D1758" t="inlineStr">
         <is>
-          <t>6.01%</t>
+          <t>4.123%</t>
         </is>
       </c>
       <c r="E1758" t="inlineStr"/>
@@ -46241,13 +46245,13 @@
       </c>
       <c r="B1759" t="inlineStr">
         <is>
-          <t>30-Year Mortgage RateMAY/29</t>
+          <t>EIA Crude Oil Imports ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1759" t="inlineStr"/>
       <c r="D1759" t="inlineStr">
         <is>
-          <t>6.86%</t>
+          <t>0.11M</t>
         </is>
       </c>
       <c r="E1759" t="inlineStr"/>
@@ -46266,13 +46270,13 @@
       </c>
       <c r="B1760" t="inlineStr">
         <is>
-          <t>7-Year Note Auction</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1760" t="inlineStr"/>
       <c r="D1760" t="inlineStr">
         <is>
-          <t>4.123%</t>
+          <t>-0.457M</t>
         </is>
       </c>
       <c r="E1760" t="inlineStr"/>
@@ -46291,13 +46295,13 @@
       </c>
       <c r="B1761" t="inlineStr">
         <is>
-          <t>EIA Crude Oil Imports ChangeMAY/23</t>
+          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1761" t="inlineStr"/>
       <c r="D1761" t="inlineStr">
         <is>
-          <t>0.11M</t>
+          <t>0.131M</t>
         </is>
       </c>
       <c r="E1761" t="inlineStr"/>
@@ -46316,13 +46320,13 @@
       </c>
       <c r="B1762" t="inlineStr">
         <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAY/23</t>
+          <t>EIA Distillate Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1762" t="inlineStr"/>
       <c r="D1762" t="inlineStr">
         <is>
-          <t>-0.457M</t>
+          <t>0.579M</t>
         </is>
       </c>
       <c r="E1762" t="inlineStr"/>
@@ -46341,13 +46345,13 @@
       </c>
       <c r="B1763" t="inlineStr">
         <is>
-          <t>EIA Distillate Fuel Production ChangeMAY/23</t>
+          <t>EIA Gasoline Production ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1763" t="inlineStr"/>
       <c r="D1763" t="inlineStr">
         <is>
-          <t>0.131M</t>
+          <t>0.178M</t>
         </is>
       </c>
       <c r="E1763" t="inlineStr"/>
@@ -46366,13 +46370,13 @@
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>EIA Distillate Stocks ChangeMAY/23</t>
+          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1764" t="inlineStr"/>
       <c r="D1764" t="inlineStr">
         <is>
-          <t>0.579M</t>
+          <t>-0.348M</t>
         </is>
       </c>
       <c r="E1764" t="inlineStr"/>
@@ -46391,13 +46395,13 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>EIA Gasoline Production ChangeMAY/23</t>
+          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr"/>
       <c r="D1765" t="inlineStr">
         <is>
-          <t>0.178M</t>
+          <t>0.089M</t>
         </is>
       </c>
       <c r="E1765" t="inlineStr"/>
@@ -46411,83 +46415,79 @@
     <row r="1766">
       <c r="A1766" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>01:00 PM</t>
         </is>
       </c>
       <c r="B1766" t="inlineStr">
         <is>
-          <t>EIA Heating Oil Stocks ChangeMAY/23</t>
+          <t>Fed Kugler Speech</t>
         </is>
       </c>
       <c r="C1766" t="inlineStr"/>
-      <c r="D1766" t="inlineStr">
-        <is>
-          <t>-0.348M</t>
-        </is>
-      </c>
+      <c r="D1766" t="inlineStr"/>
       <c r="E1766" t="inlineStr"/>
       <c r="F1766" t="inlineStr"/>
       <c r="G1766" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1767">
       <c r="A1767" t="inlineStr">
         <is>
-          <t>11:00 AM</t>
+          <t>03:00 PM</t>
         </is>
       </c>
       <c r="B1767" t="inlineStr">
         <is>
-          <t>EIA Refinery Crude Runs ChangeMAY/23</t>
+          <t>Fed Daly Speech</t>
         </is>
       </c>
       <c r="C1767" t="inlineStr"/>
-      <c r="D1767" t="inlineStr">
-        <is>
-          <t>0.089M</t>
-        </is>
-      </c>
+      <c r="D1767" t="inlineStr"/>
       <c r="E1767" t="inlineStr"/>
       <c r="F1767" t="inlineStr"/>
       <c r="G1767" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1768">
       <c r="A1768" t="inlineStr">
         <is>
-          <t>01:00 PM</t>
+          <t>03:30 PM</t>
         </is>
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>Fed Kugler Speech</t>
+          <t>Fed Balance SheetMAY/28</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr"/>
-      <c r="D1768" t="inlineStr"/>
+      <c r="D1768" t="inlineStr">
+        <is>
+          <t>$6.69T</t>
+        </is>
+      </c>
       <c r="E1768" t="inlineStr"/>
       <c r="F1768" t="inlineStr"/>
       <c r="G1768" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1769">
       <c r="A1769" t="inlineStr">
         <is>
-          <t>03:00 PM</t>
+          <t>07:00 PM</t>
         </is>
       </c>
       <c r="B1769" t="inlineStr">
         <is>
-          <t>Fed Daly Speech</t>
+          <t>Fed Logan Speech</t>
         </is>
       </c>
       <c r="C1769" t="inlineStr"/>
@@ -46503,61 +46503,73 @@
     <row r="1770">
       <c r="A1770" t="inlineStr">
         <is>
-          <t>03:30 PM</t>
-        </is>
-      </c>
-      <c r="B1770" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAY/28</t>
-        </is>
-      </c>
+          <t>Friday May 30 2025</t>
+        </is>
+      </c>
+      <c r="B1770" t="inlineStr"/>
       <c r="C1770" t="inlineStr"/>
-      <c r="D1770" t="inlineStr">
-        <is>
-          <t>$6.69T</t>
-        </is>
-      </c>
+      <c r="D1770" t="inlineStr"/>
       <c r="E1770" t="inlineStr"/>
       <c r="F1770" t="inlineStr"/>
-      <c r="G1770" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1770" t="inlineStr"/>
     </row>
     <row r="1771">
       <c r="A1771" t="inlineStr">
         <is>
-          <t>07:00 PM</t>
+          <t>07:30 AM</t>
         </is>
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>Fed Logan Speech</t>
+          <t>Core PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr"/>
-      <c r="D1771" t="inlineStr"/>
+      <c r="D1771" t="inlineStr">
+        <is>
+          <t>0.0%</t>
+        </is>
+      </c>
       <c r="E1771" t="inlineStr"/>
-      <c r="F1771" t="inlineStr"/>
+      <c r="F1771" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="G1771" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1772">
       <c r="A1772" t="inlineStr">
         <is>
-          <t>Friday May 30 2025</t>
-        </is>
-      </c>
-      <c r="B1772" t="inlineStr"/>
+          <t>07:30 AM</t>
+        </is>
+      </c>
+      <c r="B1772" t="inlineStr">
+        <is>
+          <t>Personal Income MoMAPR</t>
+        </is>
+      </c>
       <c r="C1772" t="inlineStr"/>
-      <c r="D1772" t="inlineStr"/>
+      <c r="D1772" t="inlineStr">
+        <is>
+          <t>0.5%</t>
+        </is>
+      </c>
       <c r="E1772" t="inlineStr"/>
-      <c r="F1772" t="inlineStr"/>
-      <c r="G1772" t="inlineStr"/>
+      <c r="F1772" t="inlineStr">
+        <is>
+          <t>0.4%</t>
+        </is>
+      </c>
+      <c r="G1772" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1773">
       <c r="A1773" t="inlineStr">
@@ -46567,19 +46579,23 @@
       </c>
       <c r="B1773" t="inlineStr">
         <is>
-          <t>Core PCE Price Index MoMAPR</t>
+          <t>Personal Spending MoMAPR</t>
         </is>
       </c>
       <c r="C1773" t="inlineStr"/>
       <c r="D1773" t="inlineStr">
         <is>
-          <t>0.0%</t>
-        </is>
-      </c>
-      <c r="E1773" t="inlineStr"/>
+          <t>0.7%</t>
+        </is>
+      </c>
+      <c r="E1773" t="inlineStr">
+        <is>
+          <t>0.2%</t>
+        </is>
+      </c>
       <c r="F1773" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>-0.1%</t>
         </is>
       </c>
       <c r="G1773" t="inlineStr">
@@ -46596,24 +46612,24 @@
       </c>
       <c r="B1774" t="inlineStr">
         <is>
-          <t>Personal Income MoMAPR</t>
+          <t>Goods Trade Balance AdvAPR</t>
         </is>
       </c>
       <c r="C1774" t="inlineStr"/>
       <c r="D1774" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>$-161.99B</t>
         </is>
       </c>
       <c r="E1774" t="inlineStr"/>
       <c r="F1774" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$-159.0B</t>
         </is>
       </c>
       <c r="G1774" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46625,28 +46641,24 @@
       </c>
       <c r="B1775" t="inlineStr">
         <is>
-          <t>Personal Spending MoMAPR</t>
+          <t>PCE Price Index MoMAPR</t>
         </is>
       </c>
       <c r="C1775" t="inlineStr"/>
       <c r="D1775" t="inlineStr">
         <is>
-          <t>0.7%</t>
-        </is>
-      </c>
-      <c r="E1775" t="inlineStr">
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="E1775" t="inlineStr"/>
+      <c r="F1775" t="inlineStr">
         <is>
           <t>0.2%</t>
         </is>
       </c>
-      <c r="F1775" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
       <c r="G1775" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -46658,19 +46670,19 @@
       </c>
       <c r="B1776" t="inlineStr">
         <is>
-          <t>Goods Trade Balance AdvAPR</t>
+          <t>PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C1776" t="inlineStr"/>
       <c r="D1776" t="inlineStr">
         <is>
-          <t>$-161.99B</t>
+          <t>2.3%</t>
         </is>
       </c>
       <c r="E1776" t="inlineStr"/>
       <c r="F1776" t="inlineStr">
         <is>
-          <t>$-159.0B</t>
+          <t>2.2%</t>
         </is>
       </c>
       <c r="G1776" t="inlineStr">
@@ -46687,19 +46699,19 @@
       </c>
       <c r="B1777" t="inlineStr">
         <is>
-          <t>PCE Price Index MoMAPR</t>
+          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
         </is>
       </c>
       <c r="C1777" t="inlineStr"/>
       <c r="D1777" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1777" t="inlineStr"/>
       <c r="F1777" t="inlineStr">
         <is>
-          <t>0.2%</t>
+          <t>0.1%</t>
         </is>
       </c>
       <c r="G1777" t="inlineStr">
@@ -46716,19 +46728,19 @@
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>PCE Price Index YoYAPR</t>
+          <t>Wholesale Inventories MoM AdvAPR</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr"/>
       <c r="D1778" t="inlineStr">
         <is>
-          <t>2.3%</t>
+          <t>0.4%</t>
         </is>
       </c>
       <c r="E1778" t="inlineStr"/>
       <c r="F1778" t="inlineStr">
         <is>
-          <t>2.2%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="G1778" t="inlineStr">
@@ -46745,48 +46757,48 @@
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoM AdvAPR</t>
+          <t>Core PCE Price Index YoYAPR</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr"/>
       <c r="D1779" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="E1779" t="inlineStr"/>
       <c r="F1779" t="inlineStr">
         <is>
-          <t>0.1%</t>
+          <t>2.6%</t>
         </is>
       </c>
       <c r="G1779" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1780">
       <c r="A1780" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>08:45 AM</t>
         </is>
       </c>
       <c r="B1780" t="inlineStr">
         <is>
-          <t>Wholesale Inventories MoM AdvAPR</t>
+          <t>Chicago PMIMAY</t>
         </is>
       </c>
       <c r="C1780" t="inlineStr"/>
       <c r="D1780" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>44.6</t>
         </is>
       </c>
       <c r="E1780" t="inlineStr"/>
       <c r="F1780" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>47</t>
         </is>
       </c>
       <c r="G1780" t="inlineStr">
@@ -46798,58 +46810,66 @@
     <row r="1781">
       <c r="A1781" t="inlineStr">
         <is>
-          <t>07:30 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1781" t="inlineStr">
         <is>
-          <t>Core PCE Price Index YoYAPR</t>
+          <t>Michigan Consumer Sentiment FinalMAY</t>
         </is>
       </c>
       <c r="C1781" t="inlineStr"/>
       <c r="D1781" t="inlineStr">
         <is>
-          <t>2.6%</t>
-        </is>
-      </c>
-      <c r="E1781" t="inlineStr"/>
+          <t>52.2</t>
+        </is>
+      </c>
+      <c r="E1781" t="inlineStr">
+        <is>
+          <t>50.8</t>
+        </is>
+      </c>
       <c r="F1781" t="inlineStr">
         <is>
-          <t>2.6%</t>
+          <t>50.8</t>
         </is>
       </c>
       <c r="G1781" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1782">
       <c r="A1782" t="inlineStr">
         <is>
-          <t>08:45 AM</t>
+          <t>09:00 AM</t>
         </is>
       </c>
       <c r="B1782" t="inlineStr">
         <is>
-          <t>Chicago PMIMAY</t>
+          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1782" t="inlineStr"/>
       <c r="D1782" t="inlineStr">
         <is>
-          <t>44.6</t>
-        </is>
-      </c>
-      <c r="E1782" t="inlineStr"/>
+          <t>4.4%</t>
+        </is>
+      </c>
+      <c r="E1782" t="inlineStr">
+        <is>
+          <t>4.6%</t>
+        </is>
+      </c>
       <c r="F1782" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>4.6%</t>
         </is>
       </c>
       <c r="G1782" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46861,28 +46881,28 @@
       </c>
       <c r="B1783" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment FinalMAY</t>
+          <t>Michigan Consumer Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1783" t="inlineStr"/>
       <c r="D1783" t="inlineStr">
         <is>
-          <t>52.2</t>
+          <t>47.3</t>
         </is>
       </c>
       <c r="E1783" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="F1783" t="inlineStr">
         <is>
-          <t>50.8</t>
+          <t>46.5</t>
         </is>
       </c>
       <c r="G1783" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -46894,23 +46914,23 @@
       </c>
       <c r="B1784" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations FinalMAY</t>
+          <t>Michigan Current Conditions FinalMAY</t>
         </is>
       </c>
       <c r="C1784" t="inlineStr"/>
       <c r="D1784" t="inlineStr">
         <is>
-          <t>4.4%</t>
+          <t>59.8</t>
         </is>
       </c>
       <c r="E1784" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="F1784" t="inlineStr">
         <is>
-          <t>4.6%</t>
+          <t>57.6</t>
         </is>
       </c>
       <c r="G1784" t="inlineStr">
@@ -46927,23 +46947,23 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations FinalMAY</t>
+          <t>Michigan Inflation Expectations FinalMAY</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr"/>
       <c r="D1785" t="inlineStr">
         <is>
-          <t>47.3</t>
+          <t>6.5%</t>
         </is>
       </c>
       <c r="E1785" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="F1785" t="inlineStr">
         <is>
-          <t>46.5</t>
+          <t>7.3%</t>
         </is>
       </c>
       <c r="G1785" t="inlineStr">
@@ -46955,63 +46975,39 @@
     <row r="1786">
       <c r="A1786" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>11:20 AM</t>
         </is>
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions FinalMAY</t>
+          <t>Fed Bostic Speech</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr"/>
-      <c r="D1786" t="inlineStr">
-        <is>
-          <t>59.8</t>
-        </is>
-      </c>
-      <c r="E1786" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
-      <c r="F1786" t="inlineStr">
-        <is>
-          <t>57.6</t>
-        </is>
-      </c>
+      <c r="D1786" t="inlineStr"/>
+      <c r="E1786" t="inlineStr"/>
+      <c r="F1786" t="inlineStr"/>
       <c r="G1786" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1787">
       <c r="A1787" t="inlineStr">
         <is>
-          <t>09:00 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1787" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations FinalMAY</t>
+          <t>Baker Hughes Oil Rig CountMAY/30</t>
         </is>
       </c>
       <c r="C1787" t="inlineStr"/>
-      <c r="D1787" t="inlineStr">
-        <is>
-          <t>6.5%</t>
-        </is>
-      </c>
-      <c r="E1787" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
-      <c r="F1787" t="inlineStr">
-        <is>
-          <t>7.3%</t>
-        </is>
-      </c>
+      <c r="D1787" t="inlineStr"/>
+      <c r="E1787" t="inlineStr"/>
+      <c r="F1787" t="inlineStr"/>
       <c r="G1787" t="inlineStr">
         <is>
           <t>3</t>
@@ -47021,12 +47017,12 @@
     <row r="1788">
       <c r="A1788" t="inlineStr">
         <is>
-          <t>11:20 AM</t>
+          <t>12:00 PM</t>
         </is>
       </c>
       <c r="B1788" t="inlineStr">
         <is>
-          <t>Fed Bostic Speech</t>
+          <t>Baker Hughes Total Rigs CountMAY/30</t>
         </is>
       </c>
       <c r="C1788" t="inlineStr"/>
@@ -47035,19 +47031,19 @@
       <c r="F1788" t="inlineStr"/>
       <c r="G1788" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1789">
       <c r="A1789" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
+          <t>06:30 PM</t>
         </is>
       </c>
       <c r="B1789" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAY/30</t>
+          <t>Fed Goolsbee Speech</t>
         </is>
       </c>
       <c r="C1789" t="inlineStr"/>
@@ -47056,56 +47052,40 @@
       <c r="F1789" t="inlineStr"/>
       <c r="G1789" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1790">
       <c r="A1790" t="inlineStr">
         <is>
-          <t>12:00 PM</t>
-        </is>
-      </c>
-      <c r="B1790" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAY/30</t>
-        </is>
-      </c>
+          <t>Saturday May 31 2025</t>
+        </is>
+      </c>
+      <c r="B1790" t="inlineStr"/>
       <c r="C1790" t="inlineStr"/>
       <c r="D1790" t="inlineStr"/>
       <c r="E1790" t="inlineStr"/>
       <c r="F1790" t="inlineStr"/>
-      <c r="G1790" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1790" t="inlineStr"/>
     </row>
     <row r="1791">
       <c r="A1791" t="inlineStr">
         <is>
-          <t>06:30 PM</t>
-        </is>
-      </c>
-      <c r="B1791" t="inlineStr">
-        <is>
-          <t>Fed Goolsbee Speech</t>
-        </is>
-      </c>
+          <t>Sunday June 01 2025</t>
+        </is>
+      </c>
+      <c r="B1791" t="inlineStr"/>
       <c r="C1791" t="inlineStr"/>
       <c r="D1791" t="inlineStr"/>
       <c r="E1791" t="inlineStr"/>
       <c r="F1791" t="inlineStr"/>
-      <c r="G1791" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="G1791" t="inlineStr"/>
     </row>
     <row r="1792">
       <c r="A1792" t="inlineStr">
         <is>
-          <t>Saturday May 31 2025</t>
+          <t>Monday June 02 2025</t>
         </is>
       </c>
       <c r="B1792" t="inlineStr"/>
@@ -47115,32 +47095,6 @@
       <c r="F1792" t="inlineStr"/>
       <c r="G1792" t="inlineStr"/>
     </row>
-    <row r="1793">
-      <c r="A1793" t="inlineStr">
-        <is>
-          <t>Sunday June 01 2025</t>
-        </is>
-      </c>
-      <c r="B1793" t="inlineStr"/>
-      <c r="C1793" t="inlineStr"/>
-      <c r="D1793" t="inlineStr"/>
-      <c r="E1793" t="inlineStr"/>
-      <c r="F1793" t="inlineStr"/>
-      <c r="G1793" t="inlineStr"/>
-    </row>
-    <row r="1794">
-      <c r="A1794" t="inlineStr">
-        <is>
-          <t>Monday June 02 2025</t>
-        </is>
-      </c>
-      <c r="B1794" t="inlineStr"/>
-      <c r="C1794" t="inlineStr"/>
-      <c r="D1794" t="inlineStr"/>
-      <c r="E1794" t="inlineStr"/>
-      <c r="F1794" t="inlineStr"/>
-      <c r="G1794" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
